--- a/data/model_params_FIFA_2022.xlsx
+++ b/data/model_params_FIFA_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.403624994953491</v>
+        <v>1.042309107091355</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1167398071253616</v>
+        <v>-0.116562815773544</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1544455682555005</v>
+        <v>-0.1592239461346836</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1396938898120435</v>
+        <v>-0.1228135972531265</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6517502363481631</v>
+        <v>-0.6428507070351096</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1328681430359688</v>
+        <v>0.1385793388500075</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.07868077754933453</v>
+        <v>0.0841738758598569</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005379593964601144</v>
+        <v>0.0001971396443468134</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6190052240750675</v>
+        <v>0.5797073516238369</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.4288704395598353</v>
+        <v>-0.05030276577666537</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.3536483700011199</v>
+        <v>0.008861290341707543</v>
       </c>
     </row>
     <row r="13">
@@ -562,17 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.08949404931873844</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>shot_during_regular_play</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>-0.610389654119344</v>
+        <v>0.2767204933162186</v>
       </c>
     </row>
   </sheetData>
